--- a/assets/Machine Qualifications for PCP Quoting.xlsx
+++ b/assets/Machine Qualifications for PCP Quoting.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pearsonpackaging-my.sharepoint.com/personal/bthall_pearsonpkg_com/Documents/Desktop/Pearson Quote Pro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:10000_{8CB434F5-630A-4320-BE1A-C89B53D12013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:10000_{818C9CF8-B216-441B-BFDC-83D1EAE3F2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <author>tc={F828897B-12DE-48AD-ACF8-74E65B8C8184}</author>
   </authors>
   <commentList>
-    <comment ref="W9" authorId="0" shapeId="0" xr:uid="{EA09A80C-E760-468A-8586-B8B8538E5B7B}">
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{EA09A80C-E760-468A-8586-B8B8538E5B7B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +66,7 @@
     mechanically a 3 programming needs work.</t>
       </text>
     </comment>
-    <comment ref="AI9" authorId="1" shapeId="0" xr:uid="{32AE0480-9C1D-4FCE-968F-62844DB78A8A}">
+    <comment ref="AI8" authorId="1" shapeId="0" xr:uid="{32AE0480-9C1D-4FCE-968F-62844DB78A8A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +76,7 @@
     can move the robot using the pendant</t>
       </text>
     </comment>
-    <comment ref="AJ9" authorId="2" shapeId="0" xr:uid="{8EF8F3CA-204E-4503-8C3D-642DFCEB99B9}">
+    <comment ref="AJ8" authorId="2" shapeId="0" xr:uid="{8EF8F3CA-204E-4503-8C3D-642DFCEB99B9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,7 +86,7 @@
     can move the robot using the pendant</t>
       </text>
     </comment>
-    <comment ref="P14" authorId="3" shapeId="0" xr:uid="{22B1510E-5691-40A3-A2DB-007B04F4B96C}">
+    <comment ref="P13" authorId="3" shapeId="0" xr:uid="{22B1510E-5691-40A3-A2DB-007B04F4B96C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,7 +94,7 @@
     Has done retro fits but no trouble shooting or installs</t>
       </text>
     </comment>
-    <comment ref="R14" authorId="4" shapeId="0" xr:uid="{F828897B-12DE-48AD-ACF8-74E65B8C8184}">
+    <comment ref="R13" authorId="4" shapeId="0" xr:uid="{F828897B-12DE-48AD-ACF8-74E65B8C8184}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="565">
   <si>
     <t>BF35 Plemons Bliss Trayformer</t>
   </si>
@@ -2019,85 +2019,13 @@
     <t>RPC-DF</t>
   </si>
   <si>
-    <t>Technicians</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Ottosen, Brian</t>
-  </si>
-  <si>
-    <t>Overstreet, Darryl</t>
-  </si>
-  <si>
-    <t>Musgrave, Lee</t>
-  </si>
-  <si>
-    <t>Mam, Veth</t>
-  </si>
-  <si>
-    <t>Rigg, Kevin</t>
-  </si>
-  <si>
-    <t>England, Jodi</t>
-  </si>
-  <si>
-    <t>Hansen, Troy</t>
-  </si>
-  <si>
-    <t>Limewood, Mike</t>
-  </si>
-  <si>
-    <t>Reno, Vince</t>
-  </si>
-  <si>
-    <t>Morrison, Travis</t>
-  </si>
-  <si>
-    <t>Bacerrra, Gabe</t>
-  </si>
-  <si>
-    <t>Bicknell, Creed</t>
-  </si>
-  <si>
-    <t>Reyes, Miles</t>
-  </si>
-  <si>
-    <t>Chappell, Justin</t>
-  </si>
-  <si>
-    <t>Johnson, Jordan</t>
-  </si>
-  <si>
-    <t>Olson, Connor</t>
-  </si>
-  <si>
-    <t>Woods, Dearl</t>
-  </si>
-  <si>
-    <t>Fitzpatrick, Jason</t>
-  </si>
-  <si>
-    <t>Snyder, Jeff</t>
-  </si>
-  <si>
-    <t>Chavez, Juan</t>
-  </si>
-  <si>
-    <t>Baez, Manny</t>
-  </si>
-  <si>
-    <t>Taylor, Keith</t>
-  </si>
-  <si>
-    <t>Flores, Rogelio</t>
-  </si>
-  <si>
-    <t>Bostick, George</t>
-  </si>
-  <si>
-    <t>Ranger, Chad</t>
+    <t>Resource Type</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Engineer</t>
   </si>
 </sst>
 </file>
@@ -2275,18 +2203,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2331,7 +2253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2412,19 +2334,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2470,21 +2379,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2541,17 +2435,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2657,43 +2540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -2727,7 +2573,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2742,7 +2588,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2757,23 +2603,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2783,25 +2629,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2811,322 +2657,295 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5488,10 +5307,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26F35CE5-72C3-4F83-B74A-F29D900B9957}" name="Table1" displayName="Table1" ref="A1:AJ28" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
-  <autoFilter ref="A1:AJ28" xr:uid="{26F35CE5-72C3-4F83-B74A-F29D900B9957}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26F35CE5-72C3-4F83-B74A-F29D900B9957}" name="Table1" displayName="Table1" ref="A1:AJ26" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
+  <autoFilter ref="A1:AJ26" xr:uid="{26F35CE5-72C3-4F83-B74A-F29D900B9957}"/>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{C7069042-44C2-4518-AB68-F56F3502F09B}" name="Column1" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{C7069042-44C2-4518-AB68-F56F3502F09B}" name="Resource Type" dataDxfId="62"/>
     <tableColumn id="3" xr3:uid="{61E474AF-58BD-4B8E-8859-EEDA9338F0E9}" name="BF20" dataDxfId="61"/>
     <tableColumn id="4" xr3:uid="{8AF9260F-4DF7-41FA-8C0B-744F9EDAF94B}" name="BF23" dataDxfId="60"/>
     <tableColumn id="5" xr3:uid="{6AD417FD-73F5-409E-AD7F-94641871248A}" name="BF25" dataDxfId="59"/>
@@ -5819,25 +5638,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="W9" dT="2026-01-19T21:01:43.40" personId="{42A20DDD-E2DE-4C52-A627-5618C089C34D}" id="{EA09A80C-E760-468A-8586-B8B8538E5B7B}">
+  <threadedComment ref="W8" dT="2026-01-19T21:01:43.40" personId="{42A20DDD-E2DE-4C52-A627-5618C089C34D}" id="{EA09A80C-E760-468A-8586-B8B8538E5B7B}">
     <text>mechanically a 3 programming needs work.</text>
   </threadedComment>
-  <threadedComment ref="AI9" dT="2026-01-19T21:05:43.20" personId="{42A20DDD-E2DE-4C52-A627-5618C089C34D}" id="{32AE0480-9C1D-4FCE-968F-62844DB78A8A}">
+  <threadedComment ref="AI8" dT="2026-01-19T21:05:43.20" personId="{42A20DDD-E2DE-4C52-A627-5618C089C34D}" id="{32AE0480-9C1D-4FCE-968F-62844DB78A8A}">
     <text>mechanical set up only</text>
   </threadedComment>
-  <threadedComment ref="AI9" dT="2026-01-19T21:06:16.06" personId="{42A20DDD-E2DE-4C52-A627-5618C089C34D}" id="{716ABBAB-3410-4421-9324-599F32767C6C}" parentId="{32AE0480-9C1D-4FCE-968F-62844DB78A8A}">
+  <threadedComment ref="AI8" dT="2026-01-19T21:06:16.06" personId="{42A20DDD-E2DE-4C52-A627-5618C089C34D}" id="{716ABBAB-3410-4421-9324-599F32767C6C}" parentId="{32AE0480-9C1D-4FCE-968F-62844DB78A8A}">
     <text>can move the robot using the pendant</text>
   </threadedComment>
-  <threadedComment ref="AJ9" dT="2026-01-19T21:05:30.78" personId="{42A20DDD-E2DE-4C52-A627-5618C089C34D}" id="{8EF8F3CA-204E-4503-8C3D-642DFCEB99B9}">
+  <threadedComment ref="AJ8" dT="2026-01-19T21:05:30.78" personId="{42A20DDD-E2DE-4C52-A627-5618C089C34D}" id="{8EF8F3CA-204E-4503-8C3D-642DFCEB99B9}">
     <text>Mechanical set up only</text>
   </threadedComment>
-  <threadedComment ref="AJ9" dT="2026-01-19T21:06:02.89" personId="{42A20DDD-E2DE-4C52-A627-5618C089C34D}" id="{E69B9DF2-8AF4-4A55-830E-68AA6FDFE732}" parentId="{8EF8F3CA-204E-4503-8C3D-642DFCEB99B9}">
+  <threadedComment ref="AJ8" dT="2026-01-19T21:06:02.89" personId="{42A20DDD-E2DE-4C52-A627-5618C089C34D}" id="{E69B9DF2-8AF4-4A55-830E-68AA6FDFE732}" parentId="{8EF8F3CA-204E-4503-8C3D-642DFCEB99B9}">
     <text>can move the robot using the pendant</text>
   </threadedComment>
-  <threadedComment ref="P14" dT="2023-12-06T23:36:52.97" personId="{E1E3B882-E7FF-49D5-9379-FD23EB5A8DE3}" id="{22B1510E-5691-40A3-A2DB-007B04F4B96C}">
+  <threadedComment ref="P13" dT="2023-12-06T23:36:52.97" personId="{E1E3B882-E7FF-49D5-9379-FD23EB5A8DE3}" id="{22B1510E-5691-40A3-A2DB-007B04F4B96C}">
     <text>Has done retro fits but no trouble shooting or installs</text>
   </threadedComment>
-  <threadedComment ref="R14" dT="2023-12-06T23:39:06.90" personId="{E1E3B882-E7FF-49D5-9379-FD23EB5A8DE3}" id="{F828897B-12DE-48AD-ACF8-74E65B8C8184}">
+  <threadedComment ref="R13" dT="2023-12-06T23:39:06.90" personId="{E1E3B882-E7FF-49D5-9379-FD23EB5A8DE3}" id="{F828897B-12DE-48AD-ACF8-74E65B8C8184}">
     <text>Has done retro fits but no trouble shooting or installs</text>
   </threadedComment>
 </ThreadedComments>
@@ -5889,13 +5708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ143"/>
+  <dimension ref="A1:AJ141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5920,7 +5736,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>527</v>
@@ -6028,1810 +5844,1774 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="103" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105" t="s">
+        <v>61</v>
+      </c>
       <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="105" t="s">
+        <v>62</v>
+      </c>
       <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
+      <c r="N2" s="105" t="s">
+        <v>61</v>
+      </c>
       <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
+      <c r="P2" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="105" t="s">
+        <v>62</v>
+      </c>
       <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
+      <c r="Z2" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="105" t="s">
+        <v>62</v>
+      </c>
       <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="105"/>
+      <c r="AD2" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="104" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="108" t="s">
+    <row r="3" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="104"/>
+      <c r="AJ3" s="104"/>
+    </row>
+    <row r="4" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="104"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="T4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB4" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC4" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG4" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+    </row>
+    <row r="5" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA5" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE5" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF5" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG5" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH5" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI5" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ5" s="104"/>
+    </row>
+    <row r="6" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="104"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB6" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF6" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG6" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104"/>
+    </row>
+    <row r="7" spans="1:36" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z7" s="104"/>
+      <c r="AA7" s="104"/>
+      <c r="AB7" s="104"/>
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="104"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="104"/>
+      <c r="AG7" s="104"/>
+      <c r="AH7" s="104"/>
+      <c r="AI7" s="104"/>
+      <c r="AJ7" s="104"/>
+    </row>
+    <row r="8" spans="1:36" s="109" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="S8" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF8" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI8" s="107" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ8" s="107" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="105"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="W9" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA9" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB9" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF9" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG9" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="104"/>
+      <c r="AJ9" s="104" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="110" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="104"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="X10" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z10" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE10" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF10" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG10" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH10" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI10" s="104"/>
+      <c r="AJ10" s="104"/>
+    </row>
+    <row r="11" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="104"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="X11" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA11" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ11" s="104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="112"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="113"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="V12" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="X12" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA12" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB12" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC12" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD12" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE12" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF12" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG12" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH12" s="112"/>
+      <c r="AI12" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ12" s="112"/>
+    </row>
+    <row r="13" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="X13" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB13" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC13" s="112"/>
+      <c r="AD13" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE13" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF13" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="112"/>
+      <c r="AI13" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ13" s="112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="112"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="112"/>
+      <c r="N14" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="X14" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y14" s="112"/>
+      <c r="Z14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD14" s="112"/>
+      <c r="AE14" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG14" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH14" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI14" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ14" s="112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A15" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="X15" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC15" s="112"/>
+      <c r="AD15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE15" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG15" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH15" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="114"/>
+    </row>
+    <row r="16" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="U16" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="V16" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="X16" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y16" s="112"/>
+      <c r="Z16" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA16" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB16" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC16" s="112"/>
+      <c r="AD16" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE16" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF16" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG16" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH16" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI16" s="112"/>
+      <c r="AJ16" s="112"/>
+    </row>
+    <row r="17" spans="1:36" s="106" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B17" s="112"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y17" s="112"/>
+      <c r="Z17" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA17" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB17" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC17" s="112"/>
+      <c r="AD17" s="112"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="112"/>
+      <c r="AI17" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ17" s="112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A18" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B18" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="112"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="112"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="112"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="U18" s="112"/>
+      <c r="V18" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="W18" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="X18" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y18" s="112"/>
+      <c r="Z18" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA18" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB18" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC18" s="112"/>
+      <c r="AD18" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE18" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF18" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG18" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH18" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="112"/>
+    </row>
+    <row r="19" spans="1:36" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="T19" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="U19" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="V19" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="W19" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="X19" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y19" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z19" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA19" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB19" s="115" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC19" s="115"/>
+      <c r="AD19" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE19" s="116"/>
+      <c r="AF19" s="115"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="115"/>
+      <c r="AI19" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ19" s="115" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" s="122" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="117"/>
+      <c r="U20" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="V20" s="117"/>
+      <c r="W20" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="X20" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA20" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB20" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF20" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG20" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="117"/>
+    </row>
+    <row r="21" spans="1:36" s="110" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A21" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="S21" s="105"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="X21" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA21" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB21" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF21" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG21" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="104"/>
+      <c r="AJ21" s="104"/>
+    </row>
+    <row r="22" spans="1:36" s="125" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="123" t="s">
         <v>564</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="109" t="s">
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="109" t="s">
+      <c r="X22" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA22" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB22" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC22" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110" t="s">
+      <c r="AD22" s="105"/>
+      <c r="AE22" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF22" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG22" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH22" s="124"/>
+      <c r="AI22" s="113" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ22" s="113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" s="126" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A23" s="123" t="s">
+        <v>564</v>
+      </c>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="S23" s="105"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="X23" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA23" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB23" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="104"/>
+      <c r="AG23" s="105"/>
+      <c r="AH23" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110" t="s">
+      <c r="AI23" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ23" s="112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="21" x14ac:dyDescent="0.4">
+      <c r="A24" s="123" t="s">
+        <v>564</v>
+      </c>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="104"/>
+      <c r="AG24" s="105"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="109"/>
-      <c r="N3" s="110" t="s">
+      <c r="AJ24" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109" t="s">
+    </row>
+    <row r="25" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A25" s="123" t="s">
+        <v>564</v>
+      </c>
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="109" t="s">
+      <c r="X25" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="110" t="s">
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB3" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109" t="s">
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="104"/>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="104"/>
+      <c r="AI25" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF3" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI3" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ3" s="109" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="108" t="s">
-        <v>565</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="U4" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="W4" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA4" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB4" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC4" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD4" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE4" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF4" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG4" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-    </row>
-    <row r="5" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="108" t="s">
-        <v>566</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="U5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="W5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="X5" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB5" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC5" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE5" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG5" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH5" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI5" s="109"/>
-      <c r="AJ5" s="109"/>
-    </row>
-    <row r="6" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="108" t="s">
-        <v>567</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="W6" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="X6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA6" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE6" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF6" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG6" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH6" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI6" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ6" s="109"/>
-    </row>
-    <row r="7" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="108" t="s">
-        <v>568</v>
-      </c>
-      <c r="B7" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="109"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="S7" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="V7" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="X7" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA7" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB7" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC7" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF7" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG7" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="109"/>
-      <c r="AJ7" s="109"/>
-    </row>
-    <row r="8" spans="1:36" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="112" t="s">
-        <v>569</v>
-      </c>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="109"/>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="109"/>
-      <c r="AJ8" s="109"/>
-    </row>
-    <row r="9" spans="1:36" s="116" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="115"/>
-      <c r="W9" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="X9" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA9" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB9" s="115"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="115" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF9" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI9" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ9" s="114" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="108" t="s">
-        <v>571</v>
-      </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="110"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="W10" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="X10" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA10" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB10" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="109"/>
-      <c r="AE10" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF10" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG10" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="109" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" s="117" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="108" t="s">
-        <v>572</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="109"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="U11" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="V11" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="W11" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="X11" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y11" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z11" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA11" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB11" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC11" s="109"/>
-      <c r="AD11" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE11" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF11" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG11" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH11" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI11" s="109"/>
-      <c r="AJ11" s="109"/>
-    </row>
-    <row r="12" spans="1:36" s="118" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="70" t="s">
-        <v>573</v>
-      </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="X12" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA12" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ12" s="109" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="108" t="s">
-        <v>580</v>
-      </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="119"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="120"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="119"/>
-      <c r="P13" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="S13" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="T13" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="U13" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="V13" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="W13" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="X13" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y13" s="119"/>
-      <c r="Z13" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA13" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB13" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC13" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD13" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE13" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF13" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG13" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH13" s="119"/>
-      <c r="AI13" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ13" s="119"/>
-    </row>
-    <row r="14" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="108" t="s">
-        <v>581</v>
-      </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="X14" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA14" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB14" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE14" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF14" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="119"/>
-      <c r="AI14" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ14" s="119" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="108" t="s">
-        <v>582</v>
-      </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="119"/>
-      <c r="N15" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="119"/>
-      <c r="P15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="R15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="S15" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="T15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="U15" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="V15" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="W15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="X15" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y15" s="119"/>
-      <c r="Z15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG15" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH15" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI15" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ15" s="119" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="108" t="s">
-        <v>583</v>
-      </c>
-      <c r="B16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="U16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="V16" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="W16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="X16" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y16" s="119"/>
-      <c r="Z16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC16" s="119"/>
-      <c r="AD16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE16" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG16" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH16" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="121"/>
-    </row>
-    <row r="17" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="108" t="s">
-        <v>584</v>
-      </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="119"/>
-      <c r="S17" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="T17" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="U17" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="V17" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="W17" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="X17" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y17" s="119"/>
-      <c r="Z17" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA17" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB17" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC17" s="119"/>
-      <c r="AD17" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE17" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF17" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG17" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH17" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI17" s="119"/>
-      <c r="AJ17" s="119"/>
-    </row>
-    <row r="18" spans="1:36" s="111" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="108" t="s">
-        <v>585</v>
-      </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="X18" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y18" s="119"/>
-      <c r="Z18" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA18" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB18" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC18" s="119"/>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="120"/>
-      <c r="AF18" s="119"/>
-      <c r="AG18" s="120"/>
-      <c r="AH18" s="119"/>
-      <c r="AI18" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ18" s="119" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="108" t="s">
-        <v>586</v>
-      </c>
-      <c r="B19" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="119"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="T19" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="U19" s="119"/>
-      <c r="V19" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="W19" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="X19" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA19" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB19" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC19" s="119"/>
-      <c r="AD19" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE19" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF19" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG19" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH19" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI19" s="119"/>
-      <c r="AJ19" s="119"/>
-    </row>
-    <row r="20" spans="1:36" s="111" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="70" t="s">
-        <v>587</v>
-      </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="S20" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="T20" s="123" t="s">
-        <v>62</v>
-      </c>
-      <c r="U20" s="123" t="s">
-        <v>62</v>
-      </c>
-      <c r="V20" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="W20" s="123" t="s">
-        <v>62</v>
-      </c>
-      <c r="X20" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y20" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z20" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA20" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB20" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC20" s="122"/>
-      <c r="AD20" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE20" s="123"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="123"/>
-      <c r="AH20" s="122"/>
-      <c r="AI20" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ20" s="122" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" s="130" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="124" t="s">
-        <v>588</v>
-      </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="T21" s="125"/>
-      <c r="U21" s="127" t="s">
-        <v>61</v>
-      </c>
-      <c r="V21" s="125"/>
-      <c r="W21" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="X21" s="128" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA21" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB21" s="127" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC21" s="125"/>
-      <c r="AD21" s="125"/>
-      <c r="AE21" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF21" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG21" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="125"/>
-      <c r="AJ21" s="125"/>
-    </row>
-    <row r="22" spans="1:36" s="117" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="108" t="s">
-        <v>574</v>
-      </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="S22" s="110"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="X22" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA22" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB22" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC22" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD22" s="109"/>
-      <c r="AE22" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF22" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG22" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH22" s="109"/>
-      <c r="AI22" s="109"/>
-      <c r="AJ22" s="109"/>
-    </row>
-    <row r="23" spans="1:36" s="131" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A23" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="106"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="106"/>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="106"/>
-      <c r="AJ23" s="107"/>
-    </row>
-    <row r="24" spans="1:36" s="134" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="132" t="s">
-        <v>575</v>
-      </c>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="133"/>
-      <c r="S24" s="133"/>
-      <c r="T24" s="133"/>
-      <c r="U24" s="133"/>
-      <c r="V24" s="133"/>
-      <c r="W24" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="X24" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y24" s="110"/>
-      <c r="Z24" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA24" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB24" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC24" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD24" s="110"/>
-      <c r="AE24" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF24" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG24" s="110" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH24" s="133"/>
-      <c r="AI24" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ24" s="120" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" s="135" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="70" t="s">
-        <v>576</v>
-      </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="S25" s="110"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="X25" s="110" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y25" s="109"/>
-      <c r="Z25" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA25" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB25" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC25" s="109"/>
-      <c r="AD25" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="109"/>
-      <c r="AG25" s="110"/>
-      <c r="AH25" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI25" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ25" s="119" t="s">
+      <c r="AJ25" s="112" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="108" t="s">
-        <v>577</v>
-      </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="109"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="109"/>
-      <c r="Z26" s="109"/>
-      <c r="AA26" s="109"/>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="109"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="109"/>
-      <c r="AG26" s="110"/>
-      <c r="AH26" s="109"/>
-      <c r="AI26" s="119" t="s">
+      <c r="A26" s="123" t="s">
+        <v>564</v>
+      </c>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="104"/>
+      <c r="AG26" s="105"/>
+      <c r="AH26" s="104"/>
+      <c r="AI26" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ26" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="AJ26" s="119" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="27" spans="1:36" s="118" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="70" t="s">
-        <v>578</v>
-      </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="X27" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="109"/>
-      <c r="AI27" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ27" s="119" t="s">
-        <v>61</v>
-      </c>
+    <row r="27" spans="1:36" s="31" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="51"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="69"/>
+      <c r="AC27" s="69"/>
+      <c r="AD27" s="69"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="69"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="69"/>
     </row>
     <row r="28" spans="1:36" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="70" t="s">
-        <v>579</v>
-      </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="109"/>
-      <c r="AA28" s="109"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="109"/>
-      <c r="AD28" s="109"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="109"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="109"/>
-      <c r="AI28" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ28" s="119" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
     </row>
-    <row r="29" spans="1:36" s="31" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A29" s="51"/>
+    <row r="29" spans="1:36" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="52"/>
       <c r="B29" s="69"/>
       <c r="C29" s="45"/>
       <c r="D29" s="69"/>
@@ -7844,17 +7624,17 @@
       <c r="K29" s="69"/>
       <c r="L29" s="45"/>
       <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
+      <c r="N29" s="45"/>
       <c r="O29" s="69"/>
       <c r="P29" s="69"/>
       <c r="Q29" s="69"/>
       <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
+      <c r="S29" s="45"/>
       <c r="T29" s="69"/>
       <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
+      <c r="V29" s="45"/>
       <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
+      <c r="X29" s="45"/>
       <c r="Y29" s="69"/>
       <c r="Z29" s="69"/>
       <c r="AA29" s="69"/>
@@ -7868,49 +7648,81 @@
       <c r="AI29" s="69"/>
       <c r="AJ29" s="69"/>
     </row>
-    <row r="30" spans="1:36" ht="21" x14ac:dyDescent="0.4">
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
+    <row r="30" spans="1:36" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
     </row>
-    <row r="31" spans="1:36" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A31" s="52"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="69"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="69"/>
+    <row r="31" spans="1:36" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16"/>
     </row>
     <row r="32" spans="1:36" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="17"/>
@@ -8280,10 +8092,10 @@
       <c r="W41" s="16"/>
       <c r="X41" s="16"/>
       <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
       <c r="AD41" s="16"/>
       <c r="AE41" s="16"/>
       <c r="AF41" s="16"/>
@@ -8318,10 +8130,10 @@
       <c r="W42" s="16"/>
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
       <c r="AD42" s="16"/>
       <c r="AE42" s="16"/>
       <c r="AF42" s="16"/>
@@ -9382,10 +9194,10 @@
       <c r="W70" s="16"/>
       <c r="X70" s="16"/>
       <c r="Y70" s="16"/>
-      <c r="Z70" s="38"/>
-      <c r="AA70" s="38"/>
-      <c r="AB70" s="38"/>
-      <c r="AC70" s="38"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="16"/>
       <c r="AD70" s="16"/>
       <c r="AE70" s="16"/>
       <c r="AF70" s="16"/>
@@ -9420,10 +9232,10 @@
       <c r="W71" s="16"/>
       <c r="X71" s="16"/>
       <c r="Y71" s="16"/>
-      <c r="Z71" s="38"/>
-      <c r="AA71" s="38"/>
-      <c r="AB71" s="38"/>
-      <c r="AC71" s="38"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
       <c r="AD71" s="16"/>
       <c r="AE71" s="16"/>
       <c r="AF71" s="16"/>
@@ -9876,10 +9688,10 @@
       <c r="W83" s="16"/>
       <c r="X83" s="16"/>
       <c r="Y83" s="16"/>
-      <c r="Z83" s="16"/>
-      <c r="AA83" s="16"/>
-      <c r="AB83" s="16"/>
-      <c r="AC83" s="16"/>
+      <c r="Z83" s="38"/>
+      <c r="AA83" s="38"/>
+      <c r="AB83" s="38"/>
+      <c r="AC83" s="38"/>
       <c r="AD83" s="16"/>
       <c r="AE83" s="16"/>
       <c r="AF83" s="16"/>
@@ -9914,10 +9726,10 @@
       <c r="W84" s="16"/>
       <c r="X84" s="16"/>
       <c r="Y84" s="16"/>
-      <c r="Z84" s="16"/>
-      <c r="AA84" s="16"/>
-      <c r="AB84" s="16"/>
-      <c r="AC84" s="16"/>
+      <c r="Z84" s="38"/>
+      <c r="AA84" s="38"/>
+      <c r="AB84" s="38"/>
+      <c r="AC84" s="38"/>
       <c r="AD84" s="16"/>
       <c r="AE84" s="16"/>
       <c r="AF84" s="16"/>
@@ -12092,172 +11904,96 @@
       <c r="AI141" s="16"/>
       <c r="AJ141" s="16"/>
     </row>
-    <row r="142" spans="1:36" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A142" s="17"/>
-      <c r="B142" s="16"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="16"/>
-      <c r="J142" s="16"/>
-      <c r="K142" s="16"/>
-      <c r="L142" s="16"/>
-      <c r="M142" s="16"/>
-      <c r="N142" s="16"/>
-      <c r="O142" s="16"/>
-      <c r="P142" s="16"/>
-      <c r="Q142" s="16"/>
-      <c r="R142" s="16"/>
-      <c r="S142" s="16"/>
-      <c r="T142" s="16"/>
-      <c r="U142" s="16"/>
-      <c r="V142" s="16"/>
-      <c r="W142" s="16"/>
-      <c r="X142" s="16"/>
-      <c r="Y142" s="16"/>
-      <c r="Z142" s="38"/>
-      <c r="AA142" s="38"/>
-      <c r="AB142" s="38"/>
-      <c r="AC142" s="38"/>
-      <c r="AD142" s="16"/>
-      <c r="AE142" s="16"/>
-      <c r="AF142" s="16"/>
-      <c r="AG142" s="16"/>
-      <c r="AH142" s="16"/>
-      <c r="AI142" s="16"/>
-      <c r="AJ142" s="16"/>
-    </row>
-    <row r="143" spans="1:36" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A143" s="17"/>
-      <c r="B143" s="16"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="16"/>
-      <c r="J143" s="16"/>
-      <c r="K143" s="16"/>
-      <c r="L143" s="16"/>
-      <c r="M143" s="16"/>
-      <c r="N143" s="16"/>
-      <c r="O143" s="16"/>
-      <c r="P143" s="16"/>
-      <c r="Q143" s="16"/>
-      <c r="R143" s="16"/>
-      <c r="S143" s="16"/>
-      <c r="T143" s="16"/>
-      <c r="U143" s="16"/>
-      <c r="V143" s="16"/>
-      <c r="W143" s="16"/>
-      <c r="X143" s="16"/>
-      <c r="Y143" s="16"/>
-      <c r="Z143" s="38"/>
-      <c r="AA143" s="38"/>
-      <c r="AB143" s="38"/>
-      <c r="AC143" s="38"/>
-      <c r="AD143" s="16"/>
-      <c r="AE143" s="16"/>
-      <c r="AF143" s="16"/>
-      <c r="AG143" s="16"/>
-      <c r="AH143" s="16"/>
-      <c r="AI143" s="16"/>
-      <c r="AJ143" s="16"/>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bwekN80u93NVrB8Cm68us/fwpbUXoYHkrRrz0j/NxDeIXGn1IYFUm9ITz/VBLw5SPS4afGPX5eAkgsEjIFRbEA==" saltValue="v3ZVILiIYWCIhDPg0tFChw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" pivotTables="0" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" pivotTables="0" selectUnlockedCells="1"/>
   <customSheetViews>
     <customSheetView guid="{B7F122DF-521D-4D09-8967-BC05B58BF214}">
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="25" type="noConversion"/>
-  <conditionalFormatting sqref="B3:AJ22 B24:AJ28">
+  <conditionalFormatting sqref="B2:AJ26">
     <cfRule type="containsText" dxfId="26" priority="89" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",B3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",B2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="90" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",B3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("3",B2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="91" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",B3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("2",B2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="23" priority="92" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",B3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
+  <conditionalFormatting sqref="P20">
     <cfRule type="containsText" dxfId="22" priority="85" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",P21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",P20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="86" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",P21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("3",P20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="87" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",P21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("2",P20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="19" priority="88" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",P21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",P20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S21">
+  <conditionalFormatting sqref="S20">
     <cfRule type="containsText" dxfId="18" priority="69" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",S21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",S20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="70" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",S21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("3",S20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="71" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",S21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("2",S20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="15" priority="72" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",S21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",S20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U21">
+  <conditionalFormatting sqref="U20">
     <cfRule type="containsText" dxfId="14" priority="61" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",U21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",U20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="62" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",U21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("3",U20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="12" priority="63" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",U21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("2",U20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="64" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",U21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",U20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21:X21">
+  <conditionalFormatting sqref="W20:X20">
     <cfRule type="containsText" dxfId="10" priority="73" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",W21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",W20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="74" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",W21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("3",W20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="75" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",W21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("2",W20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="76" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",W21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",W20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z21:AB21">
+  <conditionalFormatting sqref="Z20:AB20">
     <cfRule type="containsText" dxfId="6" priority="49" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",Z21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("X",Z20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="50" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",Z21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("3",Z20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="51" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",Z21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("2",Z20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="52" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",Z21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",Z20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13911,17 +13647,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="127" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
@@ -14291,10 +14027,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:153" s="9" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="128" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="138"/>
+      <c r="B1" s="129"/>
       <c r="C1" s="97" t="s">
         <v>323</v>
       </c>
